--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -439,49 +439,45 @@
           <t>First Word</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Column 1</t>
-        </is>
-      </c>
+      <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Column 2</t>
+          <t>Nr of points</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Column 3</t>
+          <t>Points</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Column 4</t>
+          <t>%-age</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Column 5</t>
+          <t>Column 6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Column 6</t>
+          <t>Column 7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Column 7</t>
+          <t>Column 8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Column 8</t>
+          <t>Column 9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Column 9</t>
+          <t>Column 10</t>
         </is>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -439,47 +439,47 @@
           <t>First Word</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>D Green</t>
+        </is>
+      </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Nr of points</t>
+          <t>Green</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Points</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>%-age</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Column 6</t>
+          <t>Brown</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Column 7</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Column 8</t>
+          <t>Default Red</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Column 9</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Column 10</t>
-        </is>
-      </c>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>First Word</t>
+          <t>Car Names</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -479,7 +479,11 @@
           <t>Blue</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted headform score (excluding blue points)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -432,6 +432,18 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="10.8" customWidth="1" min="2" max="2"/>
+    <col width="8.4" customWidth="1" min="3" max="3"/>
+    <col width="9.6" customWidth="1" min="4" max="4"/>
+    <col width="9.6" customWidth="1" min="5" max="5"/>
+    <col width="8.4" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="15.6" customWidth="1" min="8" max="8"/>
+    <col width="7.199999999999999" customWidth="1" min="9" max="9"/>
+    <col width="60" customWidth="1" min="10" max="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -492,31 +504,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08264462809917356</v>
+        <v>8.26</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1322314049586777</v>
+        <v>13.22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.359504132231405</v>
+        <v>35.95</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1900826446280992</v>
+        <v>19.01</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06198347107438017</v>
+        <v>6.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08264462809917356</v>
+        <v>8.26</v>
       </c>
       <c r="H2" t="n">
-        <v>0.05785123966942149</v>
+        <v>5.79</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03305785123966942</v>
+        <v>3.31</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -526,31 +538,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05952380952380952</v>
+        <v>5.95</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2777777777777778</v>
+        <v>27.78</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1984126984126984</v>
+        <v>19.84</v>
       </c>
       <c r="E3" t="n">
-        <v>0.123015873015873</v>
+        <v>12.3</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1349206349206349</v>
+        <v>13.49</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1666666666666667</v>
+        <v>16.67</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03968253968253968</v>
+        <v>3.97</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -563,28 +575,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2304347826086957</v>
+        <v>23.04</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4739130434782609</v>
+        <v>47.39</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0782608695652174</v>
+        <v>7.83</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09565217391304348</v>
+        <v>9.57</v>
       </c>
       <c r="G4" t="n">
-        <v>0.06086956521739131</v>
+        <v>6.09</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06086956521739131</v>
+        <v>6.09</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -594,31 +606,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08264462809917356</v>
+        <v>8.26</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1322314049586777</v>
+        <v>13.22</v>
       </c>
       <c r="D5" t="n">
-        <v>0.359504132231405</v>
+        <v>35.95</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1900826446280992</v>
+        <v>19.01</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06198347107438017</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08264462809917356</v>
+        <v>8.26</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05785123966942149</v>
+        <v>5.79</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03305785123966942</v>
+        <v>3.31</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -631,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.125</v>
+        <v>12.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4353448275862069</v>
+        <v>43.53</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1896551724137931</v>
+        <v>18.97</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08620689655172414</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1120689655172414</v>
+        <v>11.21</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05172413793103448</v>
+        <v>5.17</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -665,28 +677,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1594827586206897</v>
+        <v>15.95</v>
       </c>
       <c r="D7" t="n">
-        <v>0.625</v>
+        <v>62.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08620689655172414</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04310344827586207</v>
+        <v>4.31</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03448275862068965</v>
+        <v>3.45</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05172413793103448</v>
+        <v>5.17</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -699,28 +711,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5581395348837209</v>
+        <v>55.81</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2034883720930233</v>
+        <v>20.35</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1162790697674419</v>
+        <v>11.63</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04651162790697674</v>
+        <v>4.65</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05232558139534884</v>
+        <v>5.23</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02325581395348837</v>
+        <v>2.33</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -733,28 +745,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1904761904761905</v>
+        <v>19.05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2559523809523809</v>
+        <v>25.6</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3095238095238095</v>
+        <v>30.95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1011904761904762</v>
+        <v>10.12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1071428571428571</v>
+        <v>10.71</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03571428571428571</v>
+        <v>3.57</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -767,28 +779,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.608</v>
+        <v>60.8</v>
       </c>
       <c r="D10" t="n">
-        <v>0.172</v>
+        <v>17.2</v>
       </c>
       <c r="E10" t="n">
-        <v>0.064</v>
+        <v>6.4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.032</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0.012</v>
+        <v>1.2</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -798,31 +810,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06018518518518518</v>
+        <v>6.02</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2777777777777778</v>
+        <v>27.78</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3148148148148148</v>
+        <v>31.48</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1527777777777778</v>
+        <v>15.28</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01851851851851852</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08333333333333333</v>
+        <v>8.33</v>
       </c>
       <c r="H11" t="n">
-        <v>0.09259259259259259</v>
+        <v>9.26</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -835,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1981981981981982</v>
+        <v>19.82</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4054054054054054</v>
+        <v>40.54</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1576576576576577</v>
+        <v>15.77</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07207207207207207</v>
+        <v>7.21</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1216216216216216</v>
+        <v>12.16</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04504504504504504</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
@@ -869,28 +881,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1904761904761905</v>
+        <v>19.05</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2559523809523809</v>
+        <v>25.6</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3095238095238095</v>
+        <v>30.95</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1011904761904762</v>
+        <v>10.12</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1071428571428571</v>
+        <v>10.71</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03571428571428571</v>
+        <v>3.57</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9999999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -903,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2678571428571428</v>
+        <v>26.79</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4285714285714285</v>
+        <v>42.86</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08928571428571429</v>
+        <v>8.93</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09821428571428571</v>
+        <v>9.82</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1160714285714286</v>
+        <v>11.61</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -924,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -934,31 +946,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07725321888412018</v>
+        <v>7.73</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2188841201716738</v>
+        <v>21.89</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4291845493562232</v>
+        <v>42.92</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1158798283261803</v>
+        <v>11.59</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06437768240343347</v>
+        <v>6.44</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05150214592274678</v>
+        <v>5.15</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04291845493562232</v>
+        <v>4.29</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -971,28 +983,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3875968992248062</v>
+        <v>38.76</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2751937984496124</v>
+        <v>27.52</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1201550387596899</v>
+        <v>12.02</v>
       </c>
       <c r="F16" t="n">
-        <v>0.05426356589147287</v>
+        <v>5.43</v>
       </c>
       <c r="G16" t="n">
-        <v>0.124031007751938</v>
+        <v>12.4</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03875968992248062</v>
+        <v>3.88</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
@@ -1002,31 +1014,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07725321888412018</v>
+        <v>7.73</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2188841201716738</v>
+        <v>21.89</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4291845493562232</v>
+        <v>42.92</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1158798283261803</v>
+        <v>11.59</v>
       </c>
       <c r="F17" t="n">
-        <v>0.06437768240343347</v>
+        <v>6.44</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05150214592274678</v>
+        <v>5.15</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04291845493562232</v>
+        <v>4.29</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -433,16 +433,16 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="10.8" customWidth="1" min="2" max="2"/>
-    <col width="8.4" customWidth="1" min="3" max="3"/>
-    <col width="9.6" customWidth="1" min="4" max="4"/>
-    <col width="9.6" customWidth="1" min="5" max="5"/>
-    <col width="8.4" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="15.6" customWidth="1" min="8" max="8"/>
-    <col width="7.199999999999999" customWidth="1" min="9" max="9"/>
-    <col width="60" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="13" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="50" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="48" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>ford-tourneo-custom-2024-1019-safety pack.xlsx</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZEEKR</t>
+          <t>zeekr-001-2024-1037.xlsx</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAXUS</t>
+          <t>maxus-mifa-7-2024-1060.xlsx</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -602,7 +602,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>ford-tourneo-custom-2024-1019-standard.xlsx</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -636,7 +636,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VW</t>
+          <t>vw-passat-2024-1021.xlsx</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -670,7 +670,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Škoda</t>
+          <t>skoda-kodiaq-2024-1074.xlsx</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -704,7 +704,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>bmw-x2-2022-1065.xlsx</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -738,7 +738,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>renault-rafale-hev-2022-1073.xlsx</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -772,7 +772,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>mercedes-benz-e-class-2024-1064.xlsx</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -806,7 +806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>suzuki-swift-2024-1036.xlsx</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -840,7 +840,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dacia</t>
+          <t>dacia-duster-2024-1075.xlsx</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -874,7 +874,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>renault-espace-2022-1072.xlsx</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -908,7 +908,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Toyota C-HR-2024-1042.xlsx</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -942,7 +942,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Honda CR-V-2024-1050-Safety Pack.xlsx</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -976,7 +976,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>NIO EL6-2024-1054.xlsx</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1010,7 +1010,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Honda CR-V-2024-1050-Standard.xlsx</t>
         </is>
       </c>
       <c r="B17" t="n">

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="48" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ford-tourneo-custom-2024-1019-safety pack.xlsx</t>
+          <t>ford-tourneo-custom- 2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,32 +534,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zeekr-001-2024-1037.xlsx</t>
+          <t>ford-tourneo-custom- 2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.95</v>
+        <v>8.26</v>
       </c>
       <c r="C3" t="n">
-        <v>27.78</v>
+        <v>13.22</v>
       </c>
       <c r="D3" t="n">
-        <v>19.84</v>
+        <v>35.95</v>
       </c>
       <c r="E3" t="n">
-        <v>12.3</v>
+        <v>19.01</v>
       </c>
       <c r="F3" t="n">
-        <v>13.49</v>
+        <v>6.2</v>
       </c>
       <c r="G3" t="n">
-        <v>16.67</v>
+        <v>8.26</v>
       </c>
       <c r="H3" t="n">
-        <v>3.97</v>
+        <v>5.79</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
@@ -568,29 +568,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>maxus-mifa-7-2024-1060.xlsx</t>
+          <t>vw-passat- 2024</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23.04</v>
+        <v>12.5</v>
       </c>
       <c r="D4" t="n">
-        <v>47.39</v>
+        <v>43.53</v>
       </c>
       <c r="E4" t="n">
-        <v>7.83</v>
+        <v>18.97</v>
       </c>
       <c r="F4" t="n">
-        <v>9.57</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>6.09</v>
+        <v>11.21</v>
       </c>
       <c r="H4" t="n">
-        <v>6.09</v>
+        <v>5.17</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -602,32 +602,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ford-tourneo-custom-2024-1019-standard.xlsx</t>
+          <t>skoda-kodiaq- 2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.26</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>13.22</v>
+        <v>15.95</v>
       </c>
       <c r="D5" t="n">
-        <v>35.95</v>
+        <v>62.5</v>
       </c>
       <c r="E5" t="n">
-        <v>19.01</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>4.31</v>
       </c>
       <c r="G5" t="n">
-        <v>8.26</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>5.79</v>
+        <v>5.17</v>
       </c>
       <c r="I5" t="n">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>100</v>
@@ -636,29 +636,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vw-passat-2024-1021.xlsx</t>
+          <t>renault-rafale-hev- 2022</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5</v>
+        <v>19.05</v>
       </c>
       <c r="D6" t="n">
-        <v>43.53</v>
+        <v>25.6</v>
       </c>
       <c r="E6" t="n">
-        <v>18.97</v>
+        <v>30.95</v>
       </c>
       <c r="F6" t="n">
-        <v>8.619999999999999</v>
+        <v>10.12</v>
       </c>
       <c r="G6" t="n">
-        <v>11.21</v>
+        <v>10.71</v>
       </c>
       <c r="H6" t="n">
-        <v>5.17</v>
+        <v>3.57</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -670,32 +670,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>skoda-kodiaq-2024-1074.xlsx</t>
+          <t>mercedes-benz-e-class- 2024</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>15.95</v>
+        <v>60.8</v>
       </c>
       <c r="D7" t="n">
-        <v>62.5</v>
+        <v>17.2</v>
       </c>
       <c r="E7" t="n">
-        <v>8.619999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="F7" t="n">
-        <v>4.31</v>
+        <v>4</v>
       </c>
       <c r="G7" t="n">
-        <v>3.45</v>
+        <v>7.2</v>
       </c>
       <c r="H7" t="n">
-        <v>5.17</v>
+        <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J7" t="n">
         <v>100</v>
@@ -704,29 +704,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bmw-x2-2022-1065.xlsx</t>
+          <t>suzuki-swift- 2024</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>6.02</v>
       </c>
       <c r="C8" t="n">
-        <v>55.81</v>
+        <v>27.78</v>
       </c>
       <c r="D8" t="n">
-        <v>20.35</v>
+        <v>31.48</v>
       </c>
       <c r="E8" t="n">
-        <v>11.63</v>
+        <v>15.28</v>
       </c>
       <c r="F8" t="n">
-        <v>4.65</v>
+        <v>1.85</v>
       </c>
       <c r="G8" t="n">
-        <v>5.23</v>
+        <v>8.33</v>
       </c>
       <c r="H8" t="n">
-        <v>2.33</v>
+        <v>9.26</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -738,29 +738,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>renault-rafale-hev-2022-1073.xlsx</t>
+          <t>dacia-duster- 2024</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>19.05</v>
+        <v>19.82</v>
       </c>
       <c r="D9" t="n">
-        <v>25.6</v>
+        <v>40.54</v>
       </c>
       <c r="E9" t="n">
-        <v>30.95</v>
+        <v>15.77</v>
       </c>
       <c r="F9" t="n">
-        <v>10.12</v>
+        <v>7.21</v>
       </c>
       <c r="G9" t="n">
-        <v>10.71</v>
+        <v>12.16</v>
       </c>
       <c r="H9" t="n">
-        <v>3.57</v>
+        <v>4.5</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -772,32 +772,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mercedes-benz-e-class-2024-1064.xlsx</t>
+          <t>renault-espace- 2022</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>60.8</v>
+        <v>19.05</v>
       </c>
       <c r="D10" t="n">
-        <v>17.2</v>
+        <v>25.6</v>
       </c>
       <c r="E10" t="n">
-        <v>6.4</v>
+        <v>30.95</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>10.12</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>10.71</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.57</v>
       </c>
       <c r="I10" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>100</v>
@@ -806,29 +806,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>suzuki-swift-2024-1036.xlsx</t>
+          <t>Toyota C-HR- 2024</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.02</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.78</v>
+        <v>26.79</v>
       </c>
       <c r="D11" t="n">
-        <v>31.48</v>
+        <v>42.86</v>
       </c>
       <c r="E11" t="n">
-        <v>15.28</v>
+        <v>8.93</v>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>9.82</v>
       </c>
       <c r="G11" t="n">
-        <v>8.33</v>
+        <v>11.61</v>
       </c>
       <c r="H11" t="n">
-        <v>9.26</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -840,29 +840,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dacia-duster-2024-1075.xlsx</t>
+          <t>Honda CR-V- 2024</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="C12" t="n">
-        <v>19.82</v>
+        <v>21.89</v>
       </c>
       <c r="D12" t="n">
-        <v>40.54</v>
+        <v>42.92</v>
       </c>
       <c r="E12" t="n">
-        <v>15.77</v>
+        <v>11.59</v>
       </c>
       <c r="F12" t="n">
-        <v>7.21</v>
+        <v>6.44</v>
       </c>
       <c r="G12" t="n">
-        <v>12.16</v>
+        <v>5.15</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>4.29</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -874,170 +874,34 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>renault-espace-2022-1072.xlsx</t>
+          <t>Honda CR-V- 2024</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="C13" t="n">
-        <v>19.05</v>
+        <v>21.89</v>
       </c>
       <c r="D13" t="n">
-        <v>25.6</v>
+        <v>42.92</v>
       </c>
       <c r="E13" t="n">
-        <v>30.95</v>
+        <v>11.59</v>
       </c>
       <c r="F13" t="n">
-        <v>10.12</v>
+        <v>6.44</v>
       </c>
       <c r="G13" t="n">
-        <v>10.71</v>
+        <v>5.15</v>
       </c>
       <c r="H13" t="n">
-        <v>3.57</v>
+        <v>4.29</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Toyota C-HR-2024-1042.xlsx</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>26.79</v>
-      </c>
-      <c r="D14" t="n">
-        <v>42.86</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="F14" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="G14" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Honda CR-V-2024-1050-Safety Pack.xlsx</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C15" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="D15" t="n">
-        <v>42.92</v>
-      </c>
-      <c r="E15" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="G15" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="H15" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NIO EL6-2024-1054.xlsx</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>38.76</v>
-      </c>
-      <c r="D16" t="n">
-        <v>27.52</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Honda CR-V-2024-1050-Standard.xlsx</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C17" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="D17" t="n">
-        <v>42.92</v>
-      </c>
-      <c r="E17" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="29" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ford-tourneo-custom- 2024</t>
+          <t>ford tourneo custom 2024</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,32 +534,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ford-tourneo-custom- 2024</t>
+          <t>zeekr 001 2024</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.26</v>
+        <v>5.95</v>
       </c>
       <c r="C3" t="n">
-        <v>13.22</v>
+        <v>27.78</v>
       </c>
       <c r="D3" t="n">
-        <v>35.95</v>
+        <v>19.84</v>
       </c>
       <c r="E3" t="n">
-        <v>19.01</v>
+        <v>12.3</v>
       </c>
       <c r="F3" t="n">
-        <v>6.2</v>
+        <v>13.49</v>
       </c>
       <c r="G3" t="n">
-        <v>8.26</v>
+        <v>16.67</v>
       </c>
       <c r="H3" t="n">
-        <v>5.79</v>
+        <v>3.97</v>
       </c>
       <c r="I3" t="n">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
@@ -568,29 +568,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vw-passat- 2024</t>
+          <t>maxus mifa 7 2024</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5</v>
+        <v>23.04</v>
       </c>
       <c r="D4" t="n">
-        <v>43.53</v>
+        <v>47.39</v>
       </c>
       <c r="E4" t="n">
-        <v>18.97</v>
+        <v>7.83</v>
       </c>
       <c r="F4" t="n">
-        <v>8.619999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="G4" t="n">
-        <v>11.21</v>
+        <v>6.09</v>
       </c>
       <c r="H4" t="n">
-        <v>5.17</v>
+        <v>6.09</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -602,32 +602,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>skoda-kodiaq- 2024</t>
+          <t>ford tourneo custom 2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>8.26</v>
       </c>
       <c r="C5" t="n">
-        <v>15.95</v>
+        <v>13.22</v>
       </c>
       <c r="D5" t="n">
-        <v>62.5</v>
+        <v>35.95</v>
       </c>
       <c r="E5" t="n">
-        <v>8.619999999999999</v>
+        <v>19.01</v>
       </c>
       <c r="F5" t="n">
-        <v>4.31</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>8.26</v>
       </c>
       <c r="H5" t="n">
-        <v>5.17</v>
+        <v>5.79</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.31</v>
       </c>
       <c r="J5" t="n">
         <v>100</v>
@@ -636,29 +636,29 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>renault-rafale-hev- 2022</t>
+          <t>vw passat 2024</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>19.05</v>
+        <v>12.5</v>
       </c>
       <c r="D6" t="n">
-        <v>25.6</v>
+        <v>43.53</v>
       </c>
       <c r="E6" t="n">
-        <v>30.95</v>
+        <v>18.97</v>
       </c>
       <c r="F6" t="n">
-        <v>10.12</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>10.71</v>
+        <v>11.21</v>
       </c>
       <c r="H6" t="n">
-        <v>3.57</v>
+        <v>5.17</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -670,32 +670,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mercedes-benz-e-class- 2024</t>
+          <t>skoda kodiaq 2024</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>60.8</v>
+        <v>15.95</v>
       </c>
       <c r="D7" t="n">
-        <v>17.2</v>
+        <v>62.5</v>
       </c>
       <c r="E7" t="n">
-        <v>6.4</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>4</v>
+        <v>4.31</v>
       </c>
       <c r="G7" t="n">
-        <v>7.2</v>
+        <v>3.45</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>5.17</v>
       </c>
       <c r="I7" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>100</v>
@@ -704,29 +704,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>suzuki-swift- 2024</t>
+          <t>bmw x2 2022</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.02</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>27.78</v>
+        <v>55.81</v>
       </c>
       <c r="D8" t="n">
-        <v>31.48</v>
+        <v>20.35</v>
       </c>
       <c r="E8" t="n">
-        <v>15.28</v>
+        <v>11.63</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>4.65</v>
       </c>
       <c r="G8" t="n">
-        <v>8.33</v>
+        <v>5.23</v>
       </c>
       <c r="H8" t="n">
-        <v>9.26</v>
+        <v>2.33</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -738,29 +738,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dacia-duster- 2024</t>
+          <t>renault rafale hev 2022</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>19.82</v>
+        <v>19.05</v>
       </c>
       <c r="D9" t="n">
-        <v>40.54</v>
+        <v>25.6</v>
       </c>
       <c r="E9" t="n">
-        <v>15.77</v>
+        <v>30.95</v>
       </c>
       <c r="F9" t="n">
-        <v>7.21</v>
+        <v>10.12</v>
       </c>
       <c r="G9" t="n">
-        <v>12.16</v>
+        <v>10.71</v>
       </c>
       <c r="H9" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -772,32 +772,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>renault-espace- 2022</t>
+          <t>mercedes benz e class 2024</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>19.05</v>
+        <v>60.8</v>
       </c>
       <c r="D10" t="n">
-        <v>25.6</v>
+        <v>17.2</v>
       </c>
       <c r="E10" t="n">
-        <v>30.95</v>
+        <v>6.4</v>
       </c>
       <c r="F10" t="n">
-        <v>10.12</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>10.71</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
-        <v>3.57</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J10" t="n">
         <v>100</v>
@@ -806,29 +806,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Toyota C-HR- 2024</t>
+          <t>suzuki swift 2024</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>6.02</v>
       </c>
       <c r="C11" t="n">
-        <v>26.79</v>
+        <v>27.78</v>
       </c>
       <c r="D11" t="n">
-        <v>42.86</v>
+        <v>31.48</v>
       </c>
       <c r="E11" t="n">
-        <v>8.93</v>
+        <v>15.28</v>
       </c>
       <c r="F11" t="n">
-        <v>9.82</v>
+        <v>1.85</v>
       </c>
       <c r="G11" t="n">
-        <v>11.61</v>
+        <v>8.33</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.26</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -840,29 +840,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Honda CR-V- 2024</t>
+          <t>dacia duster 2024</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.73</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>21.89</v>
+        <v>19.82</v>
       </c>
       <c r="D12" t="n">
-        <v>42.92</v>
+        <v>40.54</v>
       </c>
       <c r="E12" t="n">
-        <v>11.59</v>
+        <v>15.77</v>
       </c>
       <c r="F12" t="n">
-        <v>6.44</v>
+        <v>7.21</v>
       </c>
       <c r="G12" t="n">
-        <v>5.15</v>
+        <v>12.16</v>
       </c>
       <c r="H12" t="n">
-        <v>4.29</v>
+        <v>4.5</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -874,34 +874,170 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Honda CR-V- 2024</t>
+          <t>renault espace 2022</t>
         </is>
       </c>
       <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>19.05</v>
+      </c>
+      <c r="D13" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.95</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Toyota C HR 2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>26.79</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42.86</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Honda CR V 2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>7.73</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C15" t="n">
         <v>21.89</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D15" t="n">
         <v>42.92</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E15" t="n">
         <v>11.59</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F15" t="n">
         <v>6.44</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G15" t="n">
         <v>5.15</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H15" t="n">
         <v>4.29</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>NIO EL6 2024</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>38.76</v>
+      </c>
+      <c r="D16" t="n">
+        <v>27.52</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="G16" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Honda CR V 2024</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>7.73</v>
+      </c>
+      <c r="C17" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="D17" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="G17" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,32 +602,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ford tourneo custom 2024</t>
+          <t>vw passat 2024</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.26</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>13.22</v>
+        <v>12.5</v>
       </c>
       <c r="D5" t="n">
-        <v>35.95</v>
+        <v>43.53</v>
       </c>
       <c r="E5" t="n">
-        <v>19.01</v>
+        <v>18.97</v>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>8.26</v>
+        <v>11.21</v>
       </c>
       <c r="H5" t="n">
-        <v>5.79</v>
+        <v>5.17</v>
       </c>
       <c r="I5" t="n">
-        <v>3.31</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>100</v>
@@ -636,26 +636,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vw passat 2024</t>
+          <t>skoda kodiaq 2024</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>12.5</v>
+        <v>15.95</v>
       </c>
       <c r="D6" t="n">
-        <v>43.53</v>
+        <v>62.5</v>
       </c>
       <c r="E6" t="n">
-        <v>18.97</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>8.619999999999999</v>
+        <v>4.31</v>
       </c>
       <c r="G6" t="n">
-        <v>11.21</v>
+        <v>3.45</v>
       </c>
       <c r="H6" t="n">
         <v>5.17</v>
@@ -670,29 +670,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>skoda kodiaq 2024</t>
+          <t>bmw x2 2022</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>15.95</v>
+        <v>55.81</v>
       </c>
       <c r="D7" t="n">
-        <v>62.5</v>
+        <v>20.35</v>
       </c>
       <c r="E7" t="n">
-        <v>8.619999999999999</v>
+        <v>11.63</v>
       </c>
       <c r="F7" t="n">
-        <v>4.31</v>
+        <v>4.65</v>
       </c>
       <c r="G7" t="n">
-        <v>3.45</v>
+        <v>5.23</v>
       </c>
       <c r="H7" t="n">
-        <v>5.17</v>
+        <v>2.33</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -704,29 +704,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bmw x2 2022</t>
+          <t>renault rafale hev 2022</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>55.81</v>
+        <v>19.05</v>
       </c>
       <c r="D8" t="n">
-        <v>20.35</v>
+        <v>25.6</v>
       </c>
       <c r="E8" t="n">
-        <v>11.63</v>
+        <v>30.95</v>
       </c>
       <c r="F8" t="n">
-        <v>4.65</v>
+        <v>10.12</v>
       </c>
       <c r="G8" t="n">
-        <v>5.23</v>
+        <v>10.71</v>
       </c>
       <c r="H8" t="n">
-        <v>2.33</v>
+        <v>3.57</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -738,32 +738,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>renault rafale hev 2022</t>
+          <t>mercedes benz e class 2024</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>19.05</v>
+        <v>60.8</v>
       </c>
       <c r="D9" t="n">
-        <v>25.6</v>
+        <v>17.2</v>
       </c>
       <c r="E9" t="n">
-        <v>30.95</v>
+        <v>6.4</v>
       </c>
       <c r="F9" t="n">
-        <v>10.12</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>10.71</v>
+        <v>7.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.57</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="J9" t="n">
         <v>100</v>
@@ -772,32 +772,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mercedes benz e class 2024</t>
+          <t>suzuki swift 2024</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.02</v>
       </c>
       <c r="C10" t="n">
-        <v>60.8</v>
+        <v>27.78</v>
       </c>
       <c r="D10" t="n">
-        <v>17.2</v>
+        <v>31.48</v>
       </c>
       <c r="E10" t="n">
-        <v>6.4</v>
+        <v>15.28</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>1.85</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>8.33</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>9.26</v>
       </c>
       <c r="I10" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>100</v>
@@ -806,29 +806,29 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>suzuki swift 2024</t>
+          <t>dacia duster 2024</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.02</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>27.78</v>
+        <v>19.82</v>
       </c>
       <c r="D11" t="n">
-        <v>31.48</v>
+        <v>40.54</v>
       </c>
       <c r="E11" t="n">
-        <v>15.28</v>
+        <v>15.77</v>
       </c>
       <c r="F11" t="n">
-        <v>1.85</v>
+        <v>7.21</v>
       </c>
       <c r="G11" t="n">
-        <v>8.33</v>
+        <v>12.16</v>
       </c>
       <c r="H11" t="n">
-        <v>9.26</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -840,29 +840,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dacia duster 2024</t>
+          <t>renault espace 2022</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>19.82</v>
+        <v>19.05</v>
       </c>
       <c r="D12" t="n">
-        <v>40.54</v>
+        <v>25.6</v>
       </c>
       <c r="E12" t="n">
-        <v>15.77</v>
+        <v>30.95</v>
       </c>
       <c r="F12" t="n">
-        <v>7.21</v>
+        <v>10.12</v>
       </c>
       <c r="G12" t="n">
-        <v>12.16</v>
+        <v>10.71</v>
       </c>
       <c r="H12" t="n">
-        <v>4.5</v>
+        <v>3.57</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -874,29 +874,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>renault espace 2022</t>
+          <t>Toyota C HR 2024</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>19.05</v>
+        <v>26.79</v>
       </c>
       <c r="D13" t="n">
-        <v>25.6</v>
+        <v>42.86</v>
       </c>
       <c r="E13" t="n">
-        <v>30.95</v>
+        <v>8.93</v>
       </c>
       <c r="F13" t="n">
-        <v>10.12</v>
+        <v>9.82</v>
       </c>
       <c r="G13" t="n">
-        <v>10.71</v>
+        <v>11.61</v>
       </c>
       <c r="H13" t="n">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -908,29 +908,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Toyota C HR 2024</t>
+          <t>Honda CR V 2024</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="C14" t="n">
-        <v>26.79</v>
+        <v>21.89</v>
       </c>
       <c r="D14" t="n">
-        <v>42.86</v>
+        <v>42.92</v>
       </c>
       <c r="E14" t="n">
-        <v>8.93</v>
+        <v>11.59</v>
       </c>
       <c r="F14" t="n">
-        <v>9.82</v>
+        <v>6.44</v>
       </c>
       <c r="G14" t="n">
-        <v>11.61</v>
+        <v>5.15</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -942,102 +942,34 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Honda CR V 2024</t>
+          <t>NIO EL6 2024</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.73</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>21.89</v>
+        <v>38.76</v>
       </c>
       <c r="D15" t="n">
-        <v>42.92</v>
+        <v>27.52</v>
       </c>
       <c r="E15" t="n">
-        <v>11.59</v>
+        <v>12.02</v>
       </c>
       <c r="F15" t="n">
-        <v>6.44</v>
+        <v>5.43</v>
       </c>
       <c r="G15" t="n">
-        <v>5.15</v>
+        <v>12.4</v>
       </c>
       <c r="H15" t="n">
-        <v>4.29</v>
+        <v>3.88</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NIO EL6 2024</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>38.76</v>
-      </c>
-      <c r="D16" t="n">
-        <v>27.52</v>
-      </c>
-      <c r="E16" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F16" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="G16" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Honda CR V 2024</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7.73</v>
-      </c>
-      <c r="C17" t="n">
-        <v>21.89</v>
-      </c>
-      <c r="D17" t="n">
-        <v>42.92</v>
-      </c>
-      <c r="E17" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="G17" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ford tourneo custom 2024</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zeekr 001 2024</t>
+          <t>ZEEKR</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>maxus mifa 7 2024</t>
+          <t>MAXUS</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -602,7 +602,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>vw passat 2024</t>
+          <t>VW</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -636,7 +636,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>skoda kodiaq 2024</t>
+          <t>Škoda</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -670,7 +670,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>bmw x2 2022</t>
+          <t>BMW</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -704,7 +704,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>renault rafale hev 2022</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -738,7 +738,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mercedes benz e class 2024</t>
+          <t>Mercedes-Benz</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -772,7 +772,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>suzuki swift 2024</t>
+          <t>Suzuki</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -806,7 +806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dacia duster 2024</t>
+          <t>Dacia</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -840,29 +840,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>renault espace 2022</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>19.05</v>
+        <v>26.79</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6</v>
+        <v>42.86</v>
       </c>
       <c r="E12" t="n">
-        <v>30.95</v>
+        <v>8.93</v>
       </c>
       <c r="F12" t="n">
-        <v>10.12</v>
+        <v>9.82</v>
       </c>
       <c r="G12" t="n">
-        <v>10.71</v>
+        <v>11.61</v>
       </c>
       <c r="H12" t="n">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -874,29 +874,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Toyota C HR 2024</t>
+          <t>Honda</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="C13" t="n">
-        <v>26.79</v>
+        <v>21.89</v>
       </c>
       <c r="D13" t="n">
-        <v>42.86</v>
+        <v>42.92</v>
       </c>
       <c r="E13" t="n">
-        <v>8.93</v>
+        <v>11.59</v>
       </c>
       <c r="F13" t="n">
-        <v>9.82</v>
+        <v>6.44</v>
       </c>
       <c r="G13" t="n">
-        <v>11.61</v>
+        <v>5.15</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>4.29</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -908,68 +908,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Honda CR V 2024</t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.73</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>21.89</v>
+        <v>38.76</v>
       </c>
       <c r="D14" t="n">
-        <v>42.92</v>
+        <v>27.52</v>
       </c>
       <c r="E14" t="n">
-        <v>11.59</v>
+        <v>12.02</v>
       </c>
       <c r="F14" t="n">
-        <v>6.44</v>
+        <v>5.43</v>
       </c>
       <c r="G14" t="n">
-        <v>5.15</v>
+        <v>12.4</v>
       </c>
       <c r="H14" t="n">
-        <v>4.29</v>
+        <v>3.88</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NIO EL6 2024</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>38.76</v>
-      </c>
-      <c r="D15" t="n">
-        <v>27.52</v>
-      </c>
-      <c r="E15" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="F15" t="n">
-        <v>5.43</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="8" customWidth="1" min="4" max="4"/>
@@ -500,7 +500,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Ford Tourneo Custom</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -534,7 +534,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZEEKR</t>
+          <t>ZEEKR 001</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -568,7 +568,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAXUS</t>
+          <t>MAXUS MIFA 7</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -602,7 +602,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VW</t>
+          <t>VW Passat</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -636,7 +636,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Škoda</t>
+          <t>Škoda Kodiaq</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -670,7 +670,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BMW</t>
+          <t>BMW X2</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -704,7 +704,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Renault Rafale HEV</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -738,7 +738,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mercedes-Benz</t>
+          <t>Mercedes-Benz E-Class</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -772,7 +772,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Suzuki</t>
+          <t>Suzuki Swift</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -806,7 +806,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dacia</t>
+          <t>Dacia Duster</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -840,29 +840,29 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>Renault Espace</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>26.79</v>
+        <v>19.05</v>
       </c>
       <c r="D12" t="n">
-        <v>42.86</v>
+        <v>25.6</v>
       </c>
       <c r="E12" t="n">
-        <v>8.93</v>
+        <v>30.95</v>
       </c>
       <c r="F12" t="n">
-        <v>9.82</v>
+        <v>10.12</v>
       </c>
       <c r="G12" t="n">
-        <v>11.61</v>
+        <v>10.71</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -874,29 +874,29 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Honda</t>
+          <t>Toyota C-HR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.73</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>21.89</v>
+        <v>26.79</v>
       </c>
       <c r="D13" t="n">
-        <v>42.92</v>
+        <v>42.86</v>
       </c>
       <c r="E13" t="n">
-        <v>11.59</v>
+        <v>8.93</v>
       </c>
       <c r="F13" t="n">
-        <v>6.44</v>
+        <v>9.82</v>
       </c>
       <c r="G13" t="n">
-        <v>5.15</v>
+        <v>11.61</v>
       </c>
       <c r="H13" t="n">
-        <v>4.29</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -908,34 +908,68 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NIO</t>
+          <t>Honda CR-V</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="C14" t="n">
+        <v>21.89</v>
+      </c>
+      <c r="D14" t="n">
+        <v>42.92</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NIO EL6</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
         <v>38.76</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D15" t="n">
         <v>27.52</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E15" t="n">
         <v>12.02</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F15" t="n">
         <v>5.43</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G15" t="n">
         <v>12.4</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>3.88</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
         <v>100</v>
       </c>
     </row>

--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Graphs" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -134,6 +135,236 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>26</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>52</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>78</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6000750" cy="4476750"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -976,4 +1207,29 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1"/>
+    <row r="27"/>
+    <row r="53"/>
+    <row r="79"/>
+    <row r="105"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
+++ b/Extracted Data/VRU Headform (C) - Color-wise data/2024_cars_combined.xlsx
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.26</v>
+        <v>8.264462809917356</v>
       </c>
       <c r="C2" t="n">
-        <v>13.22</v>
+        <v>13.22314049586777</v>
       </c>
       <c r="D2" t="n">
-        <v>35.95</v>
+        <v>35.9504132231405</v>
       </c>
       <c r="E2" t="n">
-        <v>19.01</v>
+        <v>19.00826446280992</v>
       </c>
       <c r="F2" t="n">
-        <v>6.2</v>
+        <v>6.198347107438017</v>
       </c>
       <c r="G2" t="n">
-        <v>8.26</v>
+        <v>8.264462809917356</v>
       </c>
       <c r="H2" t="n">
-        <v>5.79</v>
+        <v>5.785123966942149</v>
       </c>
       <c r="I2" t="n">
-        <v>3.31</v>
+        <v>3.305785123966942</v>
       </c>
       <c r="J2" t="n">
         <v>100</v>
@@ -769,31 +769,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.95</v>
+        <v>5.952380952380952</v>
       </c>
       <c r="C3" t="n">
-        <v>27.78</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="D3" t="n">
-        <v>19.84</v>
+        <v>19.84126984126984</v>
       </c>
       <c r="E3" t="n">
-        <v>12.3</v>
+        <v>12.3015873015873</v>
       </c>
       <c r="F3" t="n">
-        <v>13.49</v>
+        <v>13.49206349206349</v>
       </c>
       <c r="G3" t="n">
-        <v>16.67</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="H3" t="n">
-        <v>3.97</v>
+        <v>3.968253968253968</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -806,28 +806,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>23.04</v>
+        <v>23.04347826086957</v>
       </c>
       <c r="D4" t="n">
-        <v>47.39</v>
+        <v>47.39130434782609</v>
       </c>
       <c r="E4" t="n">
-        <v>7.83</v>
+        <v>7.82608695652174</v>
       </c>
       <c r="F4" t="n">
-        <v>9.57</v>
+        <v>9.565217391304348</v>
       </c>
       <c r="G4" t="n">
-        <v>6.09</v>
+        <v>6.086956521739131</v>
       </c>
       <c r="H4" t="n">
-        <v>6.09</v>
+        <v>6.086956521739131</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -843,19 +843,19 @@
         <v>12.5</v>
       </c>
       <c r="D5" t="n">
-        <v>43.53</v>
+        <v>43.53448275862069</v>
       </c>
       <c r="E5" t="n">
-        <v>18.97</v>
+        <v>18.96551724137931</v>
       </c>
       <c r="F5" t="n">
-        <v>8.619999999999999</v>
+        <v>8.620689655172415</v>
       </c>
       <c r="G5" t="n">
-        <v>11.21</v>
+        <v>11.20689655172414</v>
       </c>
       <c r="H5" t="n">
-        <v>5.17</v>
+        <v>5.172413793103448</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -874,22 +874,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>15.95</v>
+        <v>15.94827586206897</v>
       </c>
       <c r="D6" t="n">
         <v>62.5</v>
       </c>
       <c r="E6" t="n">
-        <v>8.619999999999999</v>
+        <v>8.620689655172415</v>
       </c>
       <c r="F6" t="n">
-        <v>4.31</v>
+        <v>4.310344827586207</v>
       </c>
       <c r="G6" t="n">
-        <v>3.45</v>
+        <v>3.448275862068965</v>
       </c>
       <c r="H6" t="n">
-        <v>5.17</v>
+        <v>5.172413793103448</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -908,22 +908,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>55.81</v>
+        <v>55.81395348837209</v>
       </c>
       <c r="D7" t="n">
-        <v>20.35</v>
+        <v>20.34883720930232</v>
       </c>
       <c r="E7" t="n">
-        <v>11.63</v>
+        <v>11.62790697674419</v>
       </c>
       <c r="F7" t="n">
-        <v>4.65</v>
+        <v>4.651162790697675</v>
       </c>
       <c r="G7" t="n">
-        <v>5.23</v>
+        <v>5.232558139534884</v>
       </c>
       <c r="H7" t="n">
-        <v>2.33</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -942,28 +942,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>19.05</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="D8" t="n">
-        <v>25.6</v>
+        <v>25.59523809523809</v>
       </c>
       <c r="E8" t="n">
-        <v>30.95</v>
+        <v>30.95238095238095</v>
       </c>
       <c r="F8" t="n">
-        <v>10.12</v>
+        <v>10.11904761904762</v>
       </c>
       <c r="G8" t="n">
-        <v>10.71</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="H8" t="n">
-        <v>3.57</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -988,7 +988,7 @@
         <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>7.2</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>3.2</v>
@@ -1007,25 +1007,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.02</v>
+        <v>6.018518518518518</v>
       </c>
       <c r="C10" t="n">
-        <v>27.78</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="D10" t="n">
-        <v>31.48</v>
+        <v>31.48148148148148</v>
       </c>
       <c r="E10" t="n">
-        <v>15.28</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="F10" t="n">
-        <v>1.85</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="G10" t="n">
-        <v>8.33</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="H10" t="n">
-        <v>9.26</v>
+        <v>9.25925925925926</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1044,22 +1044,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>19.82</v>
+        <v>19.81981981981982</v>
       </c>
       <c r="D11" t="n">
-        <v>40.54</v>
+        <v>40.54054054054054</v>
       </c>
       <c r="E11" t="n">
-        <v>15.77</v>
+        <v>15.76576576576577</v>
       </c>
       <c r="F11" t="n">
-        <v>7.21</v>
+        <v>7.207207207207207</v>
       </c>
       <c r="G11" t="n">
-        <v>12.16</v>
+        <v>12.16216216216216</v>
       </c>
       <c r="H11" t="n">
-        <v>4.5</v>
+        <v>4.504504504504505</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1078,28 +1078,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>19.05</v>
+        <v>19.04761904761905</v>
       </c>
       <c r="D12" t="n">
-        <v>25.6</v>
+        <v>25.59523809523809</v>
       </c>
       <c r="E12" t="n">
-        <v>30.95</v>
+        <v>30.95238095238095</v>
       </c>
       <c r="F12" t="n">
-        <v>10.12</v>
+        <v>10.11904761904762</v>
       </c>
       <c r="G12" t="n">
-        <v>10.71</v>
+        <v>10.71428571428571</v>
       </c>
       <c r="H12" t="n">
-        <v>3.57</v>
+        <v>3.571428571428571</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>100</v>
+        <v>99.99999999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1112,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>26.79</v>
+        <v>26.78571428571428</v>
       </c>
       <c r="D13" t="n">
-        <v>42.86</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="E13" t="n">
-        <v>8.93</v>
+        <v>8.928571428571429</v>
       </c>
       <c r="F13" t="n">
-        <v>9.82</v>
+        <v>9.821428571428571</v>
       </c>
       <c r="G13" t="n">
-        <v>11.61</v>
+        <v>11.60714285714286</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1143,25 +1143,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.73</v>
+        <v>7.725321888412018</v>
       </c>
       <c r="C14" t="n">
-        <v>21.89</v>
+        <v>21.88841201716738</v>
       </c>
       <c r="D14" t="n">
-        <v>42.92</v>
+        <v>42.91845493562232</v>
       </c>
       <c r="E14" t="n">
-        <v>11.59</v>
+        <v>11.58798283261802</v>
       </c>
       <c r="F14" t="n">
-        <v>6.44</v>
+        <v>6.437768240343347</v>
       </c>
       <c r="G14" t="n">
-        <v>5.15</v>
+        <v>5.150214592274678</v>
       </c>
       <c r="H14" t="n">
-        <v>4.29</v>
+        <v>4.291845493562231</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>38.76</v>
+        <v>38.75968992248063</v>
       </c>
       <c r="D15" t="n">
-        <v>27.52</v>
+        <v>27.51937984496124</v>
       </c>
       <c r="E15" t="n">
-        <v>12.02</v>
+        <v>12.01550387596899</v>
       </c>
       <c r="F15" t="n">
-        <v>5.43</v>
+        <v>5.426356589147287</v>
       </c>
       <c r="G15" t="n">
-        <v>12.4</v>
+        <v>12.4031007751938</v>
       </c>
       <c r="H15" t="n">
-        <v>3.88</v>
+        <v>3.875968992248062</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
